--- a/Output de dados/OD_horarias.xlsx
+++ b/Output de dados/OD_horarias.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guilistocco/Documents/TCC 2 - Ônibus/BancoDados/Output de dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4476A7-8A7C-BD4C-B53E-170AAAE1D419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83622E47-306B-474B-807E-03AC26955853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="- 4" sheetId="1" r:id="rId1"/>
@@ -441,7 +441,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:S24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -471,7 +473,7 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:R18"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6668,7 +6670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
@@ -8644,7 +8646,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -11091,7 +11095,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="B1" sqref="B1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11721,8 +11725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12765,7 +12769,7 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:R18"/>
+      <selection activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
